--- a/data/trans_dic/P1435-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1435-Edad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1340155788931156</v>
+        <v>0.1338552633535917</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07849069842372075</v>
+        <v>0.07665144587316701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03515076651477413</v>
+        <v>0.03362655380811598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06880468555407923</v>
+        <v>0.07183015971062737</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1986169978493986</v>
+        <v>0.1987379478462047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1379910340075844</v>
+        <v>0.1352928626524337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08196314816243036</v>
+        <v>0.08065403071203646</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1613743975141656</v>
+        <v>0.1663411657824944</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.0403067637190862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1333179827259036</v>
+        <v>0.1333179827259037</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1249050740175749</v>
+        <v>0.1208787554998811</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04376615185946929</v>
+        <v>0.04220677614010832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02683496467150672</v>
+        <v>0.02660669074053904</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1018351695963226</v>
+        <v>0.1051915727993116</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1833351972764141</v>
+        <v>0.1787541436775623</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08065529899292583</v>
+        <v>0.08047985649413052</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05758986774846157</v>
+        <v>0.05819597712551423</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1636262348440287</v>
+        <v>0.1711993884284354</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07014898746354008</v>
+        <v>0.06766748729734251</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04639819772321548</v>
+        <v>0.04825667017368061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00997288883974359</v>
+        <v>0.009820534762149415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09861713248547481</v>
+        <v>0.09915858672905611</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1138326575862264</v>
+        <v>0.1132982762625728</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08542837470472847</v>
+        <v>0.08461483698713271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03140189764973152</v>
+        <v>0.03132134673350218</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1434534398088543</v>
+        <v>0.1407159833410025</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.01575461077223586</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06267173937369436</v>
+        <v>0.06267173937369437</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0239251577776469</v>
+        <v>0.02281925051334365</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007374475429694021</v>
+        <v>0.008727289136666443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007747588173703335</v>
+        <v>0.007903778657048735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04954208644948406</v>
+        <v>0.05005407259592504</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05693770513800987</v>
+        <v>0.05644269558747029</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02931210817259799</v>
+        <v>0.03216140878827192</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02712921488964624</v>
+        <v>0.0269518035201521</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07792332744367154</v>
+        <v>0.0789567342565515</v>
       </c>
     </row>
     <row r="16">
@@ -868,12 +868,12 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001979138232666014</v>
+        <v>0.001975517826732347</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.001103038577913935</v>
+        <v>0.000915168546158326</v>
       </c>
     </row>
     <row r="18">
@@ -884,12 +884,12 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02183899014640412</v>
+        <v>0.01965789281265194</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.009278332854227866</v>
+        <v>0.008622705756550362</v>
       </c>
     </row>
     <row r="19">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002529448756142628</v>
+        <v>0.002577590140661309</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02279333045396174</v>
+        <v>0.02376948553906508</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02595381244865728</v>
+        <v>0.02280980560179493</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr"/>
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03303629951640324</v>
+        <v>0.03201556469607927</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01444121707289562</v>
+        <v>0.01472226793829834</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05371776213085682</v>
+        <v>0.05362189258272029</v>
       </c>
     </row>
     <row r="27">
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04573050022860073</v>
+        <v>0.04559053293270065</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0236758387175055</v>
+        <v>0.02348346981164601</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07005433430636625</v>
+        <v>0.06985351668594032</v>
       </c>
     </row>
     <row r="28">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>62651</v>
+        <v>62576</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33769</v>
+        <v>32978</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13911</v>
+        <v>13308</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24943</v>
+        <v>26039</v>
       </c>
     </row>
     <row r="7">
@@ -1229,16 +1229,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>92851</v>
+        <v>92908</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>59368</v>
+        <v>58207</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32437</v>
+        <v>31919</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58500</v>
+        <v>60301</v>
       </c>
     </row>
     <row r="8">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>78127</v>
+        <v>75609</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26709</v>
+        <v>25757</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15123</v>
+        <v>14994</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>50762</v>
+        <v>52435</v>
       </c>
     </row>
     <row r="11">
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>114675</v>
+        <v>111810</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49220</v>
+        <v>49113</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32454</v>
+        <v>32796</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81563</v>
+        <v>85338</v>
       </c>
     </row>
     <row r="12">
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48385</v>
+        <v>46673</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32923</v>
+        <v>34242</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6596</v>
+        <v>6495</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>60970</v>
+        <v>61305</v>
       </c>
     </row>
     <row r="15">
@@ -1397,16 +1397,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78515</v>
+        <v>78147</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60618</v>
+        <v>60040</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20769</v>
+        <v>20716</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>88691</v>
+        <v>86998</v>
       </c>
     </row>
     <row r="16">
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12337</v>
+        <v>11767</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4530</v>
+        <v>5361</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5029</v>
+        <v>5130</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36420</v>
+        <v>36797</v>
       </c>
     </row>
     <row r="19">
@@ -1481,16 +1481,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29359</v>
+        <v>29104</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18005</v>
+        <v>19756</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17609</v>
+        <v>17494</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>57285</v>
+        <v>58044</v>
       </c>
     </row>
     <row r="20">
@@ -1545,12 +1545,12 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>669</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23">
@@ -1561,12 +1561,12 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8823</v>
+        <v>7942</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>5630</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="24">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7817</v>
+        <v>8151</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>8666</v>
+        <v>7616</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="inlineStr"/>
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>117447</v>
+        <v>113818</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>51188</v>
+        <v>52184</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>200026</v>
+        <v>199669</v>
       </c>
     </row>
     <row r="35">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>162576</v>
+        <v>162079</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>83920</v>
+        <v>83238</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>260858</v>
+        <v>260110</v>
       </c>
     </row>
     <row r="36">
